--- a/data/trans_bre/iP12_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP12_R-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>17,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-21,9%</t>
+          <t>271,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>415,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>145,93%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 1,93</t>
+          <t>0,37; 37,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,63</t>
+          <t>0,0; 29,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,99</t>
+          <t>-15,85; 18,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 4,34</t>
+          <t>-7,34; 24,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,84; 31,34</t>
+          <t>-40,58; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 160,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 142,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 78,98</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-35,25%</t>
+          <t>-21,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-26,99%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>54,43%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-34,68%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,3</t>
+          <t>-5,85; 1,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 2,12</t>
+          <t>-0,83; 7,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 5,87</t>
+          <t>-1,28; 6,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 1,4</t>
+          <t>-3,7; 4,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-74,72; 47,82</t>
+          <t>-58,84; 31,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-58,21; 28,47</t>
+          <t>-15,86; 160,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 202,72</t>
+          <t>-14,45; 142,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-67,17; 31,23</t>
+          <t>-41,93; 78,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,84</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>271,42%</t>
+          <t>66,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>415,15%</t>
+          <t>-44,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>-18,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>145,93%</t>
+          <t>0,91%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 37,51</t>
+          <t>-1,0; 8,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,44</t>
+          <t>-9,82; 0,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 18,43</t>
+          <t>-6,82; 3,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 24,08</t>
+          <t>-5,5; 5,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,58; —</t>
+          <t>-17,97; 243,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,81; 5,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,19; 48,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,9; 101,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>66,57%</t>
+          <t>-35,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-44,28%</t>
+          <t>-26,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-18,28%</t>
+          <t>54,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>-34,68%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 8,78</t>
+          <t>-5,13; 1,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 0,1</t>
+          <t>-7,33; 2,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 3,19</t>
+          <t>-1,18; 5,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,53</t>
+          <t>-8,57; 1,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 243,52</t>
+          <t>-74,72; 47,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-70,81; 5,33</t>
+          <t>-58,21; 28,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-54,19; 48,97</t>
+          <t>-21,21; 202,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 101,0</t>
+          <t>-67,17; 31,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP12_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP12_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 37,51</t>
+          <t>0,76; 37,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,44</t>
+          <t>0,82; 31,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 18,43</t>
+          <t>-15,7; 18,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,58; —</t>
+          <t>-50,04; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 2,48</t>
+          <t>-7,54; 3,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 10,9</t>
+          <t>-1,27; 11,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,69</t>
+          <t>-2,07; 6,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 5,51</t>
+          <t>-5,77; 5,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,97; 53,37</t>
+          <t>-69,73; 64,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 238,42</t>
+          <t>-15,54; 225,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,26; 456,1</t>
+          <t>-48,73; 468,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,51; 126,78</t>
+          <t>-59,05; 143,16</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 1,93</t>
+          <t>-5,22; 2,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,63</t>
+          <t>-0,77; 7,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,99</t>
+          <t>-1,04; 7,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 4,34</t>
+          <t>-3,64; 4,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,84; 31,34</t>
+          <t>-53,62; 46,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 160,86</t>
+          <t>-11,5; 175,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 142,83</t>
+          <t>-11,56; 137,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 78,98</t>
+          <t>-43,83; 91,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 8,78</t>
+          <t>-0,93; 8,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 0,1</t>
+          <t>-9,72; -0,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 3,19</t>
+          <t>-6,64; 3,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,53</t>
+          <t>-6,03; 5,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 243,52</t>
+          <t>-19,07; 213,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,81; 5,33</t>
+          <t>-70,03; 4,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,19; 48,97</t>
+          <t>-54,25; 48,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 101,0</t>
+          <t>-50,23; 98,95</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,3</t>
+          <t>-5,07; 1,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 2,12</t>
+          <t>-7,61; 1,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 5,87</t>
+          <t>-1,49; 6,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 1,4</t>
+          <t>-8,5; 1,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-74,72; 47,82</t>
+          <t>-74,84; 55,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-58,21; 28,47</t>
+          <t>-59,71; 22,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 202,72</t>
+          <t>-27,85; 212,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-67,17; 31,23</t>
+          <t>-68,28; 31,08</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,92</t>
+          <t>-2,2; 2,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,66</t>
+          <t>-2,4; 2,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,59</t>
+          <t>-0,76; 3,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,99</t>
+          <t>-3,13; 1,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 34,59</t>
+          <t>-29,25; 39,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 38,39</t>
+          <t>-25,27; 35,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 66,05</t>
+          <t>-10,04; 69,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 29,6</t>
+          <t>-33,02; 26,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP12_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP12_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 37,86</t>
+          <t>0,84; 36,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 31,24</t>
+          <t>0,44; 31,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 18,31</t>
+          <t>-18,67; 17,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 24,08</t>
+          <t>-8,28; 23,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,04; —</t>
+          <t>-32,03; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 3,07</t>
+          <t>-8,3; 2,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 11,04</t>
+          <t>-1,77; 11,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,87</t>
+          <t>-2,11; 6,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 5,63</t>
+          <t>-6,15; 5,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,73; 64,09</t>
+          <t>-75,57; 59,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 225,2</t>
+          <t>-25,18; 211,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,73; 468,69</t>
+          <t>-47,52; 453,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 143,16</t>
+          <t>-58,64; 124,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 2,57</t>
+          <t>-5,66; 2,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 7,14</t>
+          <t>-1,13; 6,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 7,06</t>
+          <t>-1,54; 6,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 4,26</t>
+          <t>-3,86; 4,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,62; 46,44</t>
+          <t>-57,15; 38,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 175,67</t>
+          <t>-16,58; 154,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 137,1</t>
+          <t>-16,81; 134,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,83; 91,73</t>
+          <t>-41,9; 85,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 8,35</t>
+          <t>-0,89; 8,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -0,05</t>
+          <t>-9,19; 0,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 3,25</t>
+          <t>-6,82; 2,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 5,44</t>
+          <t>-6,39; 5,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 213,05</t>
+          <t>-13,39; 248,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,03; 4,13</t>
+          <t>-69,41; 3,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,25; 48,51</t>
+          <t>-56,15; 42,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,23; 98,95</t>
+          <t>-52,99; 95,48</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,46</t>
+          <t>-4,87; 1,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 1,59</t>
+          <t>-7,83; 1,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 6,39</t>
+          <t>-1,25; 6,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 1,48</t>
+          <t>-7,82; 1,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-74,84; 55,18</t>
+          <t>-72,95; 57,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 22,27</t>
+          <t>-62,0; 19,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 212,41</t>
+          <t>-22,85; 220,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-68,28; 31,08</t>
+          <t>-63,65; 30,65</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,22</t>
+          <t>-2,29; 2,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,54</t>
+          <t>-2,31; 2,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,77</t>
+          <t>-0,66; 3,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,74</t>
+          <t>-2,95; 2,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 39,95</t>
+          <t>-30,76; 40,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 35,48</t>
+          <t>-23,83; 36,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 69,38</t>
+          <t>-9,09; 68,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 26,95</t>
+          <t>-32,24; 31,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP12_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP12_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,84</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,02</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>271,42%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>415,15%</t>
+          <t>86,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>145,93%</t>
+          <t>19,7%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 36,68</t>
+          <t>-3,81; 6,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 31,4</t>
+          <t>0,01; 11,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 17,17</t>
+          <t>-3,15; 6,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 23,72</t>
+          <t>-4,3; 6,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,03; —</t>
+          <t>-39,99; 130,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; 259,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,16; 258,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,74; 148,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-27,19%</t>
+          <t>-21,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 2,88</t>
+          <t>-5,85; 1,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 11,01</t>
+          <t>-0,83; 7,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 6,85</t>
+          <t>-1,28; 6,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 5,02</t>
+          <t>-3,49; 4,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,57; 59,93</t>
+          <t>-58,84; 31,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 211,49</t>
+          <t>-15,86; 160,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,52; 453,37</t>
+          <t>-14,45; 142,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,64; 124,63</t>
+          <t>-41,78; 85,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-21,9%</t>
+          <t>66,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>-44,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>-18,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>-11,77%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 2,13</t>
+          <t>-1,0; 8,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 6,97</t>
+          <t>-9,82; 0,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 6,87</t>
+          <t>-6,82; 3,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,43</t>
+          <t>-7,28; 4,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,15; 38,44</t>
+          <t>-17,97; 243,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 154,18</t>
+          <t>-70,81; 5,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 134,41</t>
+          <t>-54,19; 48,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 85,15</t>
+          <t>-58,77; 73,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>66,57%</t>
+          <t>-35,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-44,28%</t>
+          <t>-26,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,28%</t>
+          <t>54,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>-34,34%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,71</t>
+          <t>-5,13; 1,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 0,14</t>
+          <t>-7,33; 2,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 2,96</t>
+          <t>-1,18; 5,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 5,28</t>
+          <t>-8,68; 1,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 248,44</t>
+          <t>-74,72; 47,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 3,23</t>
+          <t>-58,21; 28,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 42,4</t>
+          <t>-21,21; 202,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,99; 95,48</t>
+          <t>-67,13; 30,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-35,25%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-26,99%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>54,43%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-34,68%</t>
+          <t>-8,4%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,37</t>
+          <t>-2,21; 1,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 1,4</t>
+          <t>-2,15; 2,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 6,68</t>
+          <t>-0,75; 3,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 1,29</t>
+          <t>-3,0; 2,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-72,95; 57,67</t>
+          <t>-29,64; 34,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-62,0; 19,08</t>
+          <t>-22,12; 38,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 220,97</t>
+          <t>-10,04; 66,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-63,65; 30,65</t>
+          <t>-33,8; 31,32</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-1,75%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>21,65%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-6,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 2,16</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 2,65</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 3,82</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 2,02</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-30,76; 40,59</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-23,83; 36,68</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-9,09; 68,6</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-32,24; 31,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
